--- a/team_specific_matrix/UAB_A.xlsx
+++ b/team_specific_matrix/UAB_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1553030303030303</v>
+        <v>0.1586826347305389</v>
       </c>
       <c r="C2">
-        <v>0.6439393939393939</v>
+        <v>0.6347305389221557</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02272727272727273</v>
+        <v>0.02395209580838323</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1098484848484848</v>
+        <v>0.1167664670658683</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06818181818181818</v>
+        <v>0.0658682634730539</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>0.004651162790697674</v>
       </c>
       <c r="C3">
-        <v>0.01176470588235294</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01764705882352941</v>
+        <v>0.0186046511627907</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7941176470588235</v>
+        <v>0.7767441860465116</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1764705882352941</v>
+        <v>0.1906976744186047</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09375</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.40625</v>
+        <v>0.3846153846153846</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07801418439716312</v>
+        <v>0.07514450867052024</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03546099290780142</v>
+        <v>0.03468208092485549</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3333333333333333</v>
+        <v>0.3121387283236994</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.007092198581560284</v>
+        <v>0.01734104046242774</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.198581560283688</v>
+        <v>0.1849710982658959</v>
       </c>
       <c r="R6">
-        <v>0.05673758865248227</v>
+        <v>0.06358381502890173</v>
       </c>
       <c r="S6">
-        <v>0.2907801418439716</v>
+        <v>0.3121387283236994</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1159420289855072</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01449275362318841</v>
+        <v>0.01162790697674419</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.05072463768115942</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1376811594202899</v>
+        <v>0.1337209302325581</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.007246376811594203</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2536231884057971</v>
+        <v>0.2383720930232558</v>
       </c>
       <c r="R7">
-        <v>0.05072463768115942</v>
+        <v>0.05813953488372093</v>
       </c>
       <c r="S7">
-        <v>0.3695652173913043</v>
+        <v>0.3953488372093023</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1289398280802292</v>
+        <v>0.1278538812785388</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01146131805157593</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>0.00228310502283105</v>
       </c>
       <c r="F8">
-        <v>0.04871060171919771</v>
+        <v>0.0547945205479452</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1203438395415473</v>
+        <v>0.1324200913242009</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02578796561604585</v>
+        <v>0.02511415525114155</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.171919770773639</v>
+        <v>0.1757990867579909</v>
       </c>
       <c r="R8">
-        <v>0.0830945558739255</v>
+        <v>0.0776255707762557</v>
       </c>
       <c r="S8">
-        <v>0.4097421203438396</v>
+        <v>0.3949771689497717</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1081081081081081</v>
+        <v>0.125</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02027027027027027</v>
+        <v>0.02717391304347826</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.04054054054054054</v>
+        <v>0.03260869565217391</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1283783783783784</v>
+        <v>0.1358695652173913</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.006756756756756757</v>
+        <v>0.0108695652173913</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2297297297297297</v>
+        <v>0.2010869565217391</v>
       </c>
       <c r="R9">
-        <v>0.06081081081081081</v>
+        <v>0.05978260869565218</v>
       </c>
       <c r="S9">
-        <v>0.4054054054054054</v>
+        <v>0.4076086956521739</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1338825952626159</v>
+        <v>0.1332250203086921</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02368692070030896</v>
+        <v>0.02274573517465475</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06488156539649846</v>
+        <v>0.06417546709991877</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1462409886714727</v>
+        <v>0.1502843216896832</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01338825952626159</v>
+        <v>0.01299756295694557</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2337796086508754</v>
+        <v>0.2282696994313566</v>
       </c>
       <c r="R10">
-        <v>0.06797116374871266</v>
+        <v>0.06742485783915515</v>
       </c>
       <c r="S10">
-        <v>0.3161688980432544</v>
+        <v>0.3208773354995939</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1346153846153846</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.08173076923076923</v>
+        <v>0.09019607843137255</v>
       </c>
       <c r="K11">
-        <v>0.1923076923076923</v>
+        <v>0.2</v>
       </c>
       <c r="L11">
-        <v>0.5721153846153846</v>
+        <v>0.5607843137254902</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01923076923076923</v>
+        <v>0.01568627450980392</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.75</v>
+        <v>0.7483443708609272</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1854838709677419</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.04032258064516129</v>
+        <v>0.04635761589403974</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.02419354838709677</v>
+        <v>0.01986754966887417</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3333333333333333</v>
+        <v>0.2619047619047619</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02380952380952381</v>
+        <v>0.01851851851851852</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1428571428571428</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="I15">
-        <v>0.1349206349206349</v>
+        <v>0.1172839506172839</v>
       </c>
       <c r="J15">
-        <v>0.3492063492063492</v>
+        <v>0.3518518518518519</v>
       </c>
       <c r="K15">
-        <v>0.03968253968253968</v>
+        <v>0.03703703703703703</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.007936507936507936</v>
+        <v>0.006172839506172839</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03968253968253968</v>
+        <v>0.04320987654320987</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2619047619047619</v>
+        <v>0.2777777777777778</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01785714285714286</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1845238095238095</v>
+        <v>0.2018779342723005</v>
       </c>
       <c r="I16">
-        <v>0.130952380952381</v>
+        <v>0.107981220657277</v>
       </c>
       <c r="J16">
-        <v>0.3928571428571428</v>
+        <v>0.4084507042253521</v>
       </c>
       <c r="K16">
-        <v>0.08333333333333333</v>
+        <v>0.07511737089201878</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.005952380952380952</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05357142857142857</v>
+        <v>0.05633802816901409</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.130952380952381</v>
+        <v>0.1173708920187793</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01574803149606299</v>
+        <v>0.01511879049676026</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2230971128608924</v>
+        <v>0.2116630669546436</v>
       </c>
       <c r="I17">
-        <v>0.08398950131233596</v>
+        <v>0.08855291576673865</v>
       </c>
       <c r="J17">
-        <v>0.4015748031496063</v>
+        <v>0.4038876889848812</v>
       </c>
       <c r="K17">
-        <v>0.06824146981627296</v>
+        <v>0.07775377969762419</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01837270341207349</v>
+        <v>0.01727861771058315</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03149606299212598</v>
+        <v>0.03455723542116631</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1574803149606299</v>
+        <v>0.1511879049676026</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.2016806722689076</v>
+        <v>0.1891891891891892</v>
       </c>
       <c r="I18">
-        <v>0.1092436974789916</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="J18">
-        <v>0.3865546218487395</v>
+        <v>0.4256756756756757</v>
       </c>
       <c r="K18">
-        <v>0.1260504201680672</v>
+        <v>0.1148648648648649</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.008403361344537815</v>
+        <v>0.006756756756756757</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03361344537815126</v>
+        <v>0.03378378378378379</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.134453781512605</v>
+        <v>0.1216216216216216</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01103752759381899</v>
+        <v>0.009683098591549295</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.217439293598234</v>
+        <v>0.221830985915493</v>
       </c>
       <c r="I19">
-        <v>0.07174392935982341</v>
+        <v>0.07570422535211267</v>
       </c>
       <c r="J19">
-        <v>0.3752759381898454</v>
+        <v>0.3741197183098591</v>
       </c>
       <c r="K19">
-        <v>0.1169977924944812</v>
+        <v>0.1117957746478873</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02207505518763797</v>
+        <v>0.0272887323943662</v>
       </c>
       <c r="N19">
-        <v>0.002207505518763797</v>
+        <v>0.00176056338028169</v>
       </c>
       <c r="O19">
-        <v>0.05849889624724062</v>
+        <v>0.05897887323943662</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1247240618101545</v>
+        <v>0.1188380281690141</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UAB_A.xlsx
+++ b/team_specific_matrix/UAB_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1586826347305389</v>
+        <v>0.1624649859943978</v>
       </c>
       <c r="C2">
-        <v>0.6347305389221557</v>
+        <v>0.6274509803921569</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02395209580838323</v>
+        <v>0.02521008403361345</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1167664670658683</v>
+        <v>0.1204481792717087</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0658682634730539</v>
+        <v>0.06442577030812324</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004651162790697674</v>
+        <v>0.004405286343612335</v>
       </c>
       <c r="C3">
-        <v>0.009302325581395349</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0186046511627907</v>
+        <v>0.01762114537444934</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7767441860465116</v>
+        <v>0.775330396475771</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1906976744186047</v>
+        <v>0.1938325991189427</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07692307692307693</v>
+        <v>0.06818181818181818</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5384615384615384</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3846153846153846</v>
+        <v>0.3863636363636364</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07514450867052024</v>
+        <v>0.08108108108108109</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03468208092485549</v>
+        <v>0.03783783783783784</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3121387283236994</v>
+        <v>0.3027027027027027</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01734104046242774</v>
+        <v>0.01621621621621622</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1849710982658959</v>
+        <v>0.1783783783783784</v>
       </c>
       <c r="R6">
-        <v>0.06358381502890173</v>
+        <v>0.06486486486486487</v>
       </c>
       <c r="S6">
-        <v>0.3121387283236994</v>
+        <v>0.3189189189189189</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1104651162790698</v>
+        <v>0.1153846153846154</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01162790697674419</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04651162790697674</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1337209302325581</v>
+        <v>0.1373626373626374</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005813953488372093</v>
+        <v>0.005494505494505495</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2383720930232558</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="R7">
-        <v>0.05813953488372093</v>
+        <v>0.05494505494505494</v>
       </c>
       <c r="S7">
-        <v>0.3953488372093023</v>
+        <v>0.4010989010989011</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1278538812785388</v>
+        <v>0.1236673773987207</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0091324200913242</v>
+        <v>0.01066098081023454</v>
       </c>
       <c r="E8">
-        <v>0.00228310502283105</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="F8">
-        <v>0.0547945205479452</v>
+        <v>0.0511727078891258</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1324200913242009</v>
+        <v>0.1364605543710021</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02511415525114155</v>
+        <v>0.0255863539445629</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1757990867579909</v>
+        <v>0.1812366737739872</v>
       </c>
       <c r="R8">
-        <v>0.0776255707762557</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="S8">
-        <v>0.3949771689497717</v>
+        <v>0.394456289978678</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.125</v>
+        <v>0.1155778894472362</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02717391304347826</v>
+        <v>0.02512562814070352</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03260869565217391</v>
+        <v>0.03015075376884422</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1358695652173913</v>
+        <v>0.1306532663316583</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.0108695652173913</v>
+        <v>0.01507537688442211</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2010869565217391</v>
+        <v>0.2010050251256282</v>
       </c>
       <c r="R9">
-        <v>0.05978260869565218</v>
+        <v>0.06532663316582915</v>
       </c>
       <c r="S9">
-        <v>0.4076086956521739</v>
+        <v>0.4170854271356784</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1332250203086921</v>
+        <v>0.1316779533483823</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02274573517465475</v>
+        <v>0.02407825432656132</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.06417546709991877</v>
+        <v>0.0654627539503386</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1502843216896832</v>
+        <v>0.145974416854778</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01299756295694557</v>
+        <v>0.01354401805869074</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2282696994313566</v>
+        <v>0.2302483069977427</v>
       </c>
       <c r="R10">
-        <v>0.06742485783915515</v>
+        <v>0.06696764484574869</v>
       </c>
       <c r="S10">
-        <v>0.3208773354995939</v>
+        <v>0.3220466516177577</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1333333333333333</v>
+        <v>0.1304347826086956</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09019607843137255</v>
+        <v>0.09420289855072464</v>
       </c>
       <c r="K11">
-        <v>0.2</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="L11">
-        <v>0.5607843137254902</v>
+        <v>0.5543478260869565</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01568627450980392</v>
+        <v>0.01811594202898551</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7483443708609272</v>
+        <v>0.7453416149068323</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1854304635761589</v>
+        <v>0.1863354037267081</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="L12">
-        <v>0.04635761589403974</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01986754966887417</v>
+        <v>0.01863354037267081</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6904761904761905</v>
+        <v>0.7111111111111111</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2619047619047619</v>
+        <v>0.2444444444444444</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04761904761904762</v>
+        <v>0.04444444444444445</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01851851851851852</v>
+        <v>0.01744186046511628</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1481481481481481</v>
+        <v>0.1453488372093023</v>
       </c>
       <c r="I15">
-        <v>0.1172839506172839</v>
+        <v>0.1104651162790698</v>
       </c>
       <c r="J15">
-        <v>0.3518518518518519</v>
+        <v>0.3488372093023256</v>
       </c>
       <c r="K15">
-        <v>0.03703703703703703</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006172839506172839</v>
+        <v>0.005813953488372093</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04320987654320987</v>
+        <v>0.04069767441860465</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2777777777777778</v>
+        <v>0.2848837209302326</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01408450704225352</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2018779342723005</v>
+        <v>0.2105263157894737</v>
       </c>
       <c r="I16">
-        <v>0.107981220657277</v>
+        <v>0.1096491228070175</v>
       </c>
       <c r="J16">
-        <v>0.4084507042253521</v>
+        <v>0.3991228070175439</v>
       </c>
       <c r="K16">
-        <v>0.07511737089201878</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0187793427230047</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05633802816901409</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1173708920187793</v>
+        <v>0.1228070175438596</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01511879049676026</v>
+        <v>0.01397205588822355</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2116630669546436</v>
+        <v>0.2035928143712575</v>
       </c>
       <c r="I17">
-        <v>0.08855291576673865</v>
+        <v>0.08782435129740519</v>
       </c>
       <c r="J17">
-        <v>0.4038876889848812</v>
+        <v>0.4231536926147705</v>
       </c>
       <c r="K17">
-        <v>0.07775377969762419</v>
+        <v>0.07584830339321358</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01727861771058315</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03455723542116631</v>
+        <v>0.03592814371257485</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1511879049676026</v>
+        <v>0.1417165668662675</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1891891891891892</v>
+        <v>0.1962025316455696</v>
       </c>
       <c r="I18">
-        <v>0.1081081081081081</v>
+        <v>0.1075949367088608</v>
       </c>
       <c r="J18">
-        <v>0.4256756756756757</v>
+        <v>0.4240506329113924</v>
       </c>
       <c r="K18">
-        <v>0.1148648648648649</v>
+        <v>0.120253164556962</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006756756756756757</v>
+        <v>0.006329113924050633</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03378378378378379</v>
+        <v>0.03164556962025317</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1216216216216216</v>
+        <v>0.1139240506329114</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009683098591549295</v>
+        <v>0.009819967266775777</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.221830985915493</v>
+        <v>0.220949263502455</v>
       </c>
       <c r="I19">
-        <v>0.07570422535211267</v>
+        <v>0.07774140752864157</v>
       </c>
       <c r="J19">
-        <v>0.3741197183098591</v>
+        <v>0.3772504091653028</v>
       </c>
       <c r="K19">
-        <v>0.1117957746478873</v>
+        <v>0.1104746317512275</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0272887323943662</v>
+        <v>0.02700490998363339</v>
       </c>
       <c r="N19">
-        <v>0.00176056338028169</v>
+        <v>0.001636661211129296</v>
       </c>
       <c r="O19">
-        <v>0.05897887323943662</v>
+        <v>0.05646481178396072</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1188380281690141</v>
+        <v>0.118657937806874</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/UAB_A.xlsx
+++ b/team_specific_matrix/UAB_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1624649859943978</v>
+        <v>0.1640625</v>
       </c>
       <c r="C2">
-        <v>0.6274509803921569</v>
+        <v>0.6197916666666666</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02521008403361345</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1204481792717087</v>
+        <v>0.125</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.06442577030812324</v>
+        <v>0.06510416666666667</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.004405286343612335</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="C3">
-        <v>0.00881057268722467</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01762114537444934</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.775330396475771</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1938325991189427</v>
+        <v>0.1958333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06818181818181818</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.5454545454545454</v>
+        <v>0.5434782608695652</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3863636363636364</v>
+        <v>0.391304347826087</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08108108108108109</v>
+        <v>0.09595959595959595</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.03783783783783784</v>
+        <v>0.03535353535353535</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3027027027027027</v>
+        <v>0.297979797979798</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01621621621621622</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1783783783783784</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="R6">
-        <v>0.06486486486486487</v>
+        <v>0.06565656565656566</v>
       </c>
       <c r="S6">
-        <v>0.3189189189189189</v>
+        <v>0.3181818181818182</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1153846153846154</v>
+        <v>0.1133004926108374</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01098901098901099</v>
+        <v>0.01477832512315271</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.04395604395604396</v>
+        <v>0.0541871921182266</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1373626373626374</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.005494505494505495</v>
+        <v>0.009852216748768473</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.2307692307692308</v>
+        <v>0.2266009852216749</v>
       </c>
       <c r="R7">
-        <v>0.05494505494505494</v>
+        <v>0.06403940886699508</v>
       </c>
       <c r="S7">
-        <v>0.4010989010989011</v>
+        <v>0.3793103448275862</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1236673773987207</v>
+        <v>0.1225296442687747</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01066098081023454</v>
+        <v>0.009881422924901186</v>
       </c>
       <c r="E8">
-        <v>0.002132196162046908</v>
+        <v>0.001976284584980237</v>
       </c>
       <c r="F8">
-        <v>0.0511727078891258</v>
+        <v>0.05533596837944664</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1364605543710021</v>
+        <v>0.1363636363636364</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.0255863539445629</v>
+        <v>0.02569169960474308</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1812366737739872</v>
+        <v>0.183794466403162</v>
       </c>
       <c r="R8">
-        <v>0.07462686567164178</v>
+        <v>0.0691699604743083</v>
       </c>
       <c r="S8">
-        <v>0.394456289978678</v>
+        <v>0.3952569169960474</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1155778894472362</v>
+        <v>0.1126760563380282</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02512562814070352</v>
+        <v>0.02347417840375587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.03015075376884422</v>
+        <v>0.02816901408450704</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1306532663316583</v>
+        <v>0.1267605633802817</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01507537688442211</v>
+        <v>0.0187793427230047</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2010050251256282</v>
+        <v>0.2065727699530517</v>
       </c>
       <c r="R9">
-        <v>0.06532663316582915</v>
+        <v>0.07981220657276995</v>
       </c>
       <c r="S9">
-        <v>0.4170854271356784</v>
+        <v>0.4037558685446009</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1316779533483823</v>
+        <v>0.1303735024665257</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02407825432656132</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0654627539503386</v>
+        <v>0.06342494714587738</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.145974416854778</v>
+        <v>0.1437632135306554</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01354401805869074</v>
+        <v>0.01268498942917548</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2302483069977427</v>
+        <v>0.2367864693446089</v>
       </c>
       <c r="R10">
-        <v>0.06696764484574869</v>
+        <v>0.07047216349541931</v>
       </c>
       <c r="S10">
-        <v>0.3220466516177577</v>
+        <v>0.3192389006342495</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1304347826086956</v>
+        <v>0.1302931596091205</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09420289855072464</v>
+        <v>0.09446254071661238</v>
       </c>
       <c r="K11">
-        <v>0.2028985507246377</v>
+        <v>0.2019543973941368</v>
       </c>
       <c r="L11">
-        <v>0.5543478260869565</v>
+        <v>0.5570032573289903</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01811594202898551</v>
+        <v>0.01628664495114007</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7453416149068323</v>
+        <v>0.726775956284153</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1863354037267081</v>
+        <v>0.1912568306010929</v>
       </c>
       <c r="K12">
-        <v>0.006211180124223602</v>
+        <v>0.00546448087431694</v>
       </c>
       <c r="L12">
-        <v>0.04347826086956522</v>
+        <v>0.0546448087431694</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01863354037267081</v>
+        <v>0.02185792349726776</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7111111111111111</v>
+        <v>0.72</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2444444444444444</v>
+        <v>0.24</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04444444444444445</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01744186046511628</v>
+        <v>0.0160427807486631</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1453488372093023</v>
+        <v>0.1443850267379679</v>
       </c>
       <c r="I15">
-        <v>0.1104651162790698</v>
+        <v>0.1122994652406417</v>
       </c>
       <c r="J15">
-        <v>0.3488372093023256</v>
+        <v>0.3422459893048128</v>
       </c>
       <c r="K15">
-        <v>0.04651162790697674</v>
+        <v>0.0481283422459893</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005813953488372093</v>
+        <v>0.0053475935828877</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04069767441860465</v>
+        <v>0.0427807486631016</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2848837209302326</v>
+        <v>0.2887700534759358</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0131578947368421</v>
+        <v>0.01244813278008299</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2105263157894737</v>
+        <v>0.2116182572614108</v>
       </c>
       <c r="I16">
-        <v>0.1096491228070175</v>
+        <v>0.1203319502074689</v>
       </c>
       <c r="J16">
-        <v>0.3991228070175439</v>
+        <v>0.3941908713692946</v>
       </c>
       <c r="K16">
-        <v>0.07456140350877193</v>
+        <v>0.07053941908713693</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01754385964912281</v>
+        <v>0.01659751037344398</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.05263157894736842</v>
+        <v>0.05394190871369295</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1228070175438596</v>
+        <v>0.1203319502074689</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01397205588822355</v>
+        <v>0.01457194899817851</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2035928143712575</v>
+        <v>0.1985428051001822</v>
       </c>
       <c r="I17">
-        <v>0.08782435129740519</v>
+        <v>0.08014571948998178</v>
       </c>
       <c r="J17">
-        <v>0.4231536926147705</v>
+        <v>0.4280510018214936</v>
       </c>
       <c r="K17">
-        <v>0.07584830339321358</v>
+        <v>0.08378870673952642</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01796407185628742</v>
+        <v>0.02003642987249545</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.03592814371257485</v>
+        <v>0.03460837887067395</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1417165668662675</v>
+        <v>0.1402550091074681</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1460,28 +1460,28 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1962025316455696</v>
+        <v>0.1864406779661017</v>
       </c>
       <c r="I18">
-        <v>0.1075949367088608</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="J18">
-        <v>0.4240506329113924</v>
+        <v>0.4293785310734463</v>
       </c>
       <c r="K18">
-        <v>0.120253164556962</v>
+        <v>0.1242937853107345</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006329113924050633</v>
+        <v>0.01694915254237288</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03164556962025317</v>
+        <v>0.02824858757062147</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1139240506329114</v>
+        <v>0.1129943502824859</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.009819967266775777</v>
+        <v>0.009195402298850575</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.220949263502455</v>
+        <v>0.2245210727969349</v>
       </c>
       <c r="I19">
-        <v>0.07774140752864157</v>
+        <v>0.07892720306513409</v>
       </c>
       <c r="J19">
-        <v>0.3772504091653028</v>
+        <v>0.3670498084291188</v>
       </c>
       <c r="K19">
-        <v>0.1104746317512275</v>
+        <v>0.1134099616858237</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02700490998363339</v>
+        <v>0.02681992337164751</v>
       </c>
       <c r="N19">
-        <v>0.001636661211129296</v>
+        <v>0.001532567049808429</v>
       </c>
       <c r="O19">
-        <v>0.05646481178396072</v>
+        <v>0.05747126436781609</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.118657937806874</v>
+        <v>0.1210727969348659</v>
       </c>
     </row>
   </sheetData>
